--- a/data/trans_orig/Q23_tabaco-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q23_tabaco-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.8188051838052</v>
+        <v>15.80874852151423</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>16.18716967737035</v>
+        <v>16.18612797381053</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.7733797896476</v>
+        <v>15.73295111394333</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.40058861543924</v>
+        <v>15.3696007004631</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>16.97645502841343</v>
+        <v>17.02251966609127</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.41775419660774</v>
+        <v>17.43052570150482</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.94228744003306</v>
+        <v>16.9167222936547</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>16.83414275210127</v>
+        <v>16.85328498370662</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.42826086491236</v>
+        <v>16.44000767852185</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16.80593395845816</v>
+        <v>16.80525610222434</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16.31978258436684</v>
+        <v>16.30593826783562</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>16.10191719179269</v>
+        <v>16.06815489901248</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.62260189632862</v>
+        <v>16.56664446499959</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.78552709234775</v>
+        <v>16.7599717898839</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.29574853443961</v>
+        <v>16.24870359216063</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.05178218211767</v>
+        <v>16.06166173610964</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.41243844355774</v>
+        <v>18.6192237747897</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.48541368814502</v>
+        <v>18.56322140432434</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.73502994153592</v>
+        <v>17.67713790047377</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.04931665067648</v>
+        <v>17.96788797981981</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.22900724085197</v>
+        <v>17.22624333059354</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17.38288928357119</v>
+        <v>17.38608505524388</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16.79221097862481</v>
+        <v>16.75608074277815</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>16.706676388732</v>
+        <v>16.66805309338836</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>18.15434453621282</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>17.50644790265891</v>
+        <v>17.50644790265892</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>16.86153373584076</v>
@@ -829,7 +829,7 @@
         <v>17.25767521854773</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>16.88753080216066</v>
+        <v>16.88753080216067</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.2263177345376</v>
+        <v>16.22021560471397</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.07868509799341</v>
+        <v>16.06543135021688</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.31286139758848</v>
+        <v>16.28791038914574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.15955610040188</v>
+        <v>16.17784612962768</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>17.21922282978239</v>
+        <v>17.19135901835039</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>16.85333094434673</v>
+        <v>16.86811091497536</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>17.6655904189544</v>
+        <v>17.66471878585041</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>17.2065868980757</v>
+        <v>17.19048483728243</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.63682756600799</v>
+        <v>16.65634331549092</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16.45839418935661</v>
+        <v>16.47009211037354</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16.94355767334524</v>
+        <v>16.96658596978371</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.67711151075982</v>
+        <v>16.64942636767561</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.7905593619809</v>
+        <v>16.81138015732963</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.55373148783153</v>
+        <v>16.5227362896518</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.95369498501958</v>
+        <v>16.93561018942602</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16.81908476055543</v>
+        <v>16.81846395976508</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>18.13223855873511</v>
+        <v>18.10953813827094</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.52934599130704</v>
+        <v>17.55603029379687</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>18.77885952755258</v>
+        <v>18.80889078254107</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>17.94265933597791</v>
+        <v>17.95229294702634</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.14192800704484</v>
+        <v>17.12695277006971</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16.84892222021614</v>
+        <v>16.85655964567271</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.61005338901221</v>
+        <v>17.60474742226749</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.1905050641294</v>
+        <v>17.17762583871653</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>17.67843720315502</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>17.48043014121387</v>
+        <v>17.48043014121386</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>16.66505513187479</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.18730792258607</v>
+        <v>16.17477144174552</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.40038379666977</v>
+        <v>16.37216401920949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.54613656637928</v>
+        <v>16.57549606878409</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.9506862251691</v>
+        <v>16.96075066913403</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>16.86002510779588</v>
+        <v>16.85936599814349</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.38809193476177</v>
+        <v>17.33126033210111</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>17.22055589880685</v>
+        <v>17.22846352622734</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>17.09129950291106</v>
+        <v>17.12524727394714</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.47752336193186</v>
+        <v>16.47038883908981</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16.89128317004714</v>
+        <v>16.87740704763277</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16.97818365225639</v>
+        <v>16.91803296887651</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>17.11409306582417</v>
+        <v>17.11120005568989</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.63763374637721</v>
+        <v>16.61320611741876</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.09535969468983</v>
+        <v>17.08974553821411</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.39180205422596</v>
+        <v>17.41343355998282</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.65652321915199</v>
+        <v>17.6252493974491</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17.59652064361843</v>
+        <v>17.59429862768757</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>18.90340821269011</v>
+        <v>18.82657342296766</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.291846226521</v>
+        <v>18.31564924232404</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.94125474219323</v>
+        <v>17.93839204354329</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.89063535327507</v>
+        <v>16.8670569160205</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17.55272317807273</v>
+        <v>17.59707040619811</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.58993396225135</v>
+        <v>17.58809687613325</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.63990471985318</v>
+        <v>17.64293498851413</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>17.0662637119302</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17.12362140216618</v>
+        <v>17.12362140216617</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>17.79961127848177</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.05595864744457</v>
+        <v>16.01836602248645</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>16.34865077830685</v>
+        <v>16.304658315445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.50082368768156</v>
+        <v>16.54583665625838</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16.7331146030353</v>
+        <v>16.76516074906541</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.15625896157263</v>
+        <v>17.15585257059857</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.36294027437635</v>
+        <v>17.32281632684318</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>17.30264938982027</v>
+        <v>17.19672254551789</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>17.38063365867819</v>
+        <v>17.4257566938286</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.55315918022254</v>
+        <v>16.57409886326234</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16.78603913364894</v>
+        <v>16.87512957770597</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16.99106077608675</v>
+        <v>16.96545283090551</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>17.15653385864257</v>
+        <v>17.13973423480788</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.83764209716684</v>
+        <v>16.83034579998082</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.17984021203859</v>
+        <v>17.14966046818459</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.73820883967909</v>
+        <v>17.77070420392111</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.51576108707195</v>
+        <v>17.51725331978412</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>19.019425392177</v>
+        <v>18.97750709251548</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.13662561249892</v>
+        <v>18.91827755618969</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>18.86640429602422</v>
+        <v>18.79072733649024</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>18.24378306616726</v>
+        <v>18.20907994760835</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.40768908073809</v>
+        <v>17.43458144952267</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17.62638711915439</v>
+        <v>17.69098551298003</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17.91572640009592</v>
+        <v>17.95835828315451</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>17.66258407870351</v>
+        <v>17.6941992554458</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.22469473712674</v>
+        <v>16.23486400998924</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.34918702237168</v>
+        <v>16.36548096447102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.33371987952596</v>
+        <v>16.33783294232513</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16.54597764586252</v>
+        <v>16.53908933614928</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>17.24809463692014</v>
+        <v>17.26909417537162</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>17.43399161388212</v>
+        <v>17.42614720375717</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>17.4451332987343</v>
+        <v>17.45536894472261</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>17.33867035943251</v>
+        <v>17.33268601153756</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.64574416731881</v>
+        <v>16.6647462981494</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16.82606108658744</v>
+        <v>16.82103410096306</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16.83751089381342</v>
+        <v>16.83585009547323</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>16.91134725104121</v>
+        <v>16.9205894428618</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.53384532449611</v>
+        <v>16.54896353217095</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.65554104609198</v>
+        <v>16.66428375063191</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.67221438902292</v>
+        <v>16.69541737052951</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.90849156232847</v>
+        <v>16.89501185532578</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>17.81301338390717</v>
+        <v>17.79556367654896</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.00045809754595</v>
+        <v>17.98911498613448</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.99301346307709</v>
+        <v>17.98764860100349</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.76155765970209</v>
+        <v>17.78621019390521</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>16.94113814263893</v>
+        <v>16.95554589074775</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.12345104197186</v>
+        <v>17.12866775946076</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17.1474332322133</v>
+        <v>17.1395875930841</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>17.18242636347752</v>
+        <v>17.19574897847665</v>
       </c>
     </row>
     <row r="19">
